--- a/data/trans_dic/P34B03_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34B03_R-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2378364891000966</v>
+        <v>0.2367157239634153</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.303505073664227</v>
+        <v>0.3018234410427214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2714652672505846</v>
+        <v>0.2736996522570537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08129119180369676</v>
+        <v>0.08037958900861789</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1320252295405386</v>
+        <v>0.1338573202302492</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1129856544972726</v>
+        <v>0.1143714924554634</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1697091610426523</v>
+        <v>0.1688696560888531</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2360181198111711</v>
+        <v>0.2320449127353844</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2163232100057784</v>
+        <v>0.2100914417419178</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3242681070314641</v>
+        <v>0.3205898535949171</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3980989649183173</v>
+        <v>0.3949321655464489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4191512272107481</v>
+        <v>0.418807240266325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1412760185903906</v>
+        <v>0.1382371086796163</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2063586871081581</v>
+        <v>0.2033718531623535</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.218344798223299</v>
+        <v>0.2194378348052011</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2230690056092074</v>
+        <v>0.2227291560779155</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2955600426152673</v>
+        <v>0.2920902986285019</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3115854064414564</v>
+        <v>0.307191359435895</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2391719484087642</v>
+        <v>0.235834356302725</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2394324273471329</v>
+        <v>0.2404417869203224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2272508058751281</v>
+        <v>0.2295626792835255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08210932622717663</v>
+        <v>0.07951645102350156</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1165075817777492</v>
+        <v>0.1159406069017363</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09000823753379145</v>
+        <v>0.09089230502640673</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1721206310207798</v>
+        <v>0.1697514883232765</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1887449824954645</v>
+        <v>0.1859610505366762</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1689550531281143</v>
+        <v>0.1654279174080445</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3104735260479757</v>
+        <v>0.3031308366299421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3120045343622672</v>
+        <v>0.3127063696941948</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3356204935601041</v>
+        <v>0.3298936947102476</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.133500581969482</v>
+        <v>0.1310695094046271</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1742758681093884</v>
+        <v>0.1730886224790578</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1539570305202938</v>
+        <v>0.1538107829206207</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2163536556049422</v>
+        <v>0.2147736605698381</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2353655503866231</v>
+        <v>0.235988385233983</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2316473104943142</v>
+        <v>0.2283046242705202</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1894937038695503</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2032339975928016</v>
+        <v>0.2032339975928015</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.07883834536145783</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1342824057017817</v>
+        <v>0.1321984081210511</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1596971874336638</v>
+        <v>0.159071002475737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1707608893726374</v>
+        <v>0.1712926766972657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0611999388051569</v>
+        <v>0.05955354234618139</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09975315685157148</v>
+        <v>0.09745916483200522</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08252900107748187</v>
+        <v>0.08359710455514635</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1026255676513028</v>
+        <v>0.1014093545391772</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.137751471496005</v>
+        <v>0.1373450560428029</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1346322982001223</v>
+        <v>0.1345888065214071</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1934895582651992</v>
+        <v>0.1914701278849242</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2231127195687455</v>
+        <v>0.2199091482705864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2391686662440385</v>
+        <v>0.2357353906932675</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1035671736861378</v>
+        <v>0.1043393855421292</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1533761717523555</v>
+        <v>0.1480988619288409</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1250138264952284</v>
+        <v>0.126878719376166</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1391393278814576</v>
+        <v>0.137730662171067</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1780113439795685</v>
+        <v>0.1768394476989963</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1762499240394255</v>
+        <v>0.1742737374053733</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.09180541827799589</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.09460259039898905</v>
+        <v>0.09460259039898906</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.08424717501035127</v>
@@ -991,7 +991,7 @@
         <v>0.1085696040806102</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.1308267183989996</v>
+        <v>0.1308267183989997</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09028409504449182</v>
+        <v>0.08797782634868476</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09813167208083765</v>
+        <v>0.1017787042883743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1393080941889075</v>
+        <v>0.1440323887639924</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03600196375720876</v>
+        <v>0.03778520808932401</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07120672011989941</v>
+        <v>0.06953562822701057</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07851661337878692</v>
+        <v>0.07838532911442071</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06818891385447869</v>
+        <v>0.06793216993867533</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09230070137263163</v>
+        <v>0.09177087793624128</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1166690630787153</v>
+        <v>0.1149235163218163</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1439681267959887</v>
+        <v>0.1451108507870247</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1528284530359757</v>
+        <v>0.1578318154927167</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1985238589175287</v>
+        <v>0.2006079337157462</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07483727083426252</v>
+        <v>0.07489503996032223</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1194863845556928</v>
+        <v>0.1144697421852979</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1152156965607157</v>
+        <v>0.1125068709004936</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1026974902079135</v>
+        <v>0.1005211643259893</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1283756495715727</v>
+        <v>0.1276909844786131</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1489061488827374</v>
+        <v>0.1487689507313718</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.0693814280278322</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0913830081071649</v>
+        <v>0.09138300810716489</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.04233880438478395</v>
@@ -1091,7 +1091,7 @@
         <v>0.04871975535861264</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.06944953717281595</v>
+        <v>0.06944953717281598</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.04636229473916704</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03137977322441156</v>
+        <v>0.02980325223755572</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04605144109095949</v>
+        <v>0.04888065149881296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07214397939930564</v>
+        <v>0.0696782392814727</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02579137215641258</v>
+        <v>0.0245007831141916</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03113337901845777</v>
+        <v>0.03106805506470603</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05447904444427602</v>
+        <v>0.05467188557881103</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03305608020727942</v>
+        <v>0.03285861093287013</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04417031566314897</v>
+        <v>0.04433652328823205</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06807879618854248</v>
+        <v>0.06807472683914637</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0765541311409127</v>
+        <v>0.07859218163456778</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09758119368753602</v>
+        <v>0.09488003526952692</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1150941309196221</v>
+        <v>0.1162579449999963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06887856994244587</v>
+        <v>0.06696078356625022</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07068088177513443</v>
+        <v>0.07183123237190335</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08636705155963161</v>
+        <v>0.08503185259671472</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06361819405605999</v>
+        <v>0.06413671461162188</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07654036715175185</v>
+        <v>0.0762398750014812</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09557880985788632</v>
+        <v>0.09566719295569716</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.05055804979072775</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.0494193998253982</v>
+        <v>0.04941939982539819</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.03348265304738649</v>
@@ -1209,7 +1209,7 @@
         <v>0.04919919181239399</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.06118806876980225</v>
+        <v>0.06118806876980226</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02034913440696571</v>
+        <v>0.02058597232963416</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02853761332106428</v>
+        <v>0.02663070726181243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05354005644256191</v>
+        <v>0.05316999730361268</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01124714025231738</v>
+        <v>0.01056230626479932</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03129159585505407</v>
+        <v>0.02952404515146548</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03599862693222318</v>
+        <v>0.03622092707168598</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01944754516448347</v>
+        <v>0.01782027363324587</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03396225751567986</v>
+        <v>0.03286630600835311</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04835808433699837</v>
+        <v>0.0482195336444711</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08437409501671198</v>
+        <v>0.07997319862794158</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07688316673531928</v>
+        <v>0.07762197867176591</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09880302467857557</v>
+        <v>0.09873057720347782</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04821540730801725</v>
+        <v>0.04760784892586143</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0810431682368456</v>
+        <v>0.07717953472963654</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06599102301642644</v>
+        <v>0.06750864752152788</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05539945396670561</v>
+        <v>0.05300631398435716</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07079467850506732</v>
+        <v>0.06965734329429867</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07493792709499127</v>
+        <v>0.0749422518082829</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.01661272669152557</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.02626476007030342</v>
+        <v>0.02626476007030341</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0121195473451472</v>
+        <v>0.008762347822308909</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009385211354227655</v>
+        <v>0.009324253618425295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02708962066241252</v>
+        <v>0.02531950913348206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.00544993684091064</v>
+        <v>0.005505124224416179</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003339863959932211</v>
+        <v>0.003393335511000894</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.007658366459189194</v>
+        <v>0.007666126758671599</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01049890456086685</v>
+        <v>0.01009217434116879</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008527623600697106</v>
+        <v>0.008115765529527631</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01777280516121996</v>
+        <v>0.01771959087467366</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07067152503191969</v>
+        <v>0.06857039409402854</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04386968600151919</v>
+        <v>0.04730329152337487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06541394159041918</v>
+        <v>0.06530448126517972</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03471790355904965</v>
+        <v>0.03011979074143609</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03501644687346186</v>
+        <v>0.03068689970627986</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03059750167460722</v>
+        <v>0.02938410579079523</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03735532018421291</v>
+        <v>0.03816190270310722</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02968107780174016</v>
+        <v>0.02831391592913404</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0370502185149893</v>
+        <v>0.03852693831884316</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.168267849960355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.1750706749087821</v>
+        <v>0.175070674908782</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.06540870295799014</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.143122773907669</v>
+        <v>0.1436327736022013</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1551472280141789</v>
+        <v>0.1563117566470478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1612991789552232</v>
+        <v>0.1616677053338311</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05705999791554181</v>
+        <v>0.0567060948095738</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08559315729238569</v>
+        <v>0.08576390864699422</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0780697787213632</v>
+        <v>0.07735610287546635</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.101777437363375</v>
+        <v>0.1015675748007532</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.122705287393686</v>
+        <v>0.1233567582145259</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1206861551329339</v>
+        <v>0.1212455046395174</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1679836413826834</v>
+        <v>0.1694163032554913</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1809930106485404</v>
+        <v>0.1817197789814982</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1919099324735331</v>
+        <v>0.1923002559465077</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07399932027727731</v>
+        <v>0.07354233200293919</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1047100396638446</v>
+        <v>0.1054689244298533</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09565932999839803</v>
+        <v>0.09519556666782157</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1172195284277668</v>
+        <v>0.1179604053339436</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1404715291850194</v>
+        <v>0.1391807542412773</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1380609249266547</v>
+        <v>0.1381302885383195</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>107734</v>
+        <v>107226</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>127309</v>
+        <v>126604</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>110702</v>
+        <v>111613</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>34974</v>
+        <v>34582</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>52250</v>
+        <v>52975</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40729</v>
+        <v>41229</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>149888</v>
+        <v>149147</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>192406</v>
+        <v>189167</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>166196</v>
+        <v>161408</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>146885</v>
+        <v>145219</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>166988</v>
+        <v>165659</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>170927</v>
+        <v>170787</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>60781</v>
+        <v>59474</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>81667</v>
+        <v>80485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>78710</v>
+        <v>79104</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>197016</v>
+        <v>196716</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>240946</v>
+        <v>238117</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>239384</v>
+        <v>236008</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>164117</v>
+        <v>161827</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>141384</v>
+        <v>141980</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>108374</v>
+        <v>109476</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>50108</v>
+        <v>48525</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>65657</v>
+        <v>65338</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45102</v>
+        <v>45545</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>223145</v>
+        <v>220074</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>217819</v>
+        <v>214606</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>165233</v>
+        <v>161784</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>213044</v>
+        <v>208005</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>184237</v>
+        <v>184652</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>160054</v>
+        <v>157323</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81469</v>
+        <v>79986</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>98212</v>
+        <v>97543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77145</v>
+        <v>77072</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>280491</v>
+        <v>278442</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>271621</v>
+        <v>272340</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>226545</v>
+        <v>223276</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>91562</v>
+        <v>90141</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>106853</v>
+        <v>106434</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>105824</v>
+        <v>106153</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>43388</v>
+        <v>42221</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>65975</v>
+        <v>64458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>51286</v>
+        <v>51950</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>142734</v>
+        <v>141042</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>183276</v>
+        <v>182735</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>167099</v>
+        <v>167045</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>131933</v>
+        <v>130556</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>149284</v>
+        <v>147141</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>148217</v>
+        <v>146090</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73425</v>
+        <v>73972</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>101441</v>
+        <v>97951</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77687</v>
+        <v>78846</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>193518</v>
+        <v>191558</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>236841</v>
+        <v>235282</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>218752</v>
+        <v>216300</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55490</v>
+        <v>54073</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>63398</v>
+        <v>65754</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>97602</v>
+        <v>100912</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22184</v>
+        <v>23283</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46219</v>
+        <v>45134</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>57827</v>
+        <v>57730</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>83928</v>
+        <v>83612</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>119541</v>
+        <v>118855</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>167667</v>
+        <v>165158</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>88485</v>
+        <v>89188</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98735</v>
+        <v>101967</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>139089</v>
+        <v>140549</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46115</v>
+        <v>46150</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>77556</v>
+        <v>74300</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>84856</v>
+        <v>82861</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>126402</v>
+        <v>123723</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>166263</v>
+        <v>165376</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>213995</v>
+        <v>213798</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13475</v>
+        <v>12798</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>22009</v>
+        <v>23361</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43883</v>
+        <v>42383</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11549</v>
+        <v>10971</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15469</v>
+        <v>15436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>33131</v>
+        <v>33248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28998</v>
+        <v>28825</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>43056</v>
+        <v>43218</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>82811</v>
+        <v>82806</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32875</v>
+        <v>33750</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>46636</v>
+        <v>45345</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>70008</v>
+        <v>70716</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30844</v>
+        <v>29985</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>35118</v>
+        <v>35689</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>52523</v>
+        <v>51711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55808</v>
+        <v>56263</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>74609</v>
+        <v>74316</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>116262</v>
+        <v>116369</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6304</v>
+        <v>6377</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9541</v>
+        <v>8903</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21742</v>
+        <v>21591</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3981</v>
+        <v>3739</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11821</v>
+        <v>11153</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>15809</v>
+        <v>15907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12909</v>
+        <v>11829</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>24184</v>
+        <v>23404</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>40874</v>
+        <v>40757</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>26138</v>
+        <v>24775</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>25704</v>
+        <v>25951</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>40122</v>
+        <v>40093</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17068</v>
+        <v>16853</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>30615</v>
+        <v>29155</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28981</v>
+        <v>29648</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>36773</v>
+        <v>35185</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>50412</v>
+        <v>49602</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>63341</v>
+        <v>63345</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3028</v>
+        <v>2189</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2412</v>
+        <v>2396</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8403</v>
+        <v>7854</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2120</v>
+        <v>2141</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3553</v>
+        <v>3557</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6707</v>
+        <v>6447</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5604</v>
+        <v>5333</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>13760</v>
+        <v>13718</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17657</v>
+        <v>17132</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11274</v>
+        <v>12157</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>20291</v>
+        <v>20257</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>13505</v>
+        <v>11716</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14012</v>
+        <v>12280</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>14197</v>
+        <v>13634</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>23864</v>
+        <v>24379</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19505</v>
+        <v>18607</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>28684</v>
+        <v>29827</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>490154</v>
+        <v>491901</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>526624</v>
+        <v>530577</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>569315</v>
+        <v>570616</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>202929</v>
+        <v>201670</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>303389</v>
+        <v>303994</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>291261</v>
+        <v>288599</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>710521</v>
+        <v>709056</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>851439</v>
+        <v>855959</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>876223</v>
+        <v>880284</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>575295</v>
+        <v>580202</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>614354</v>
+        <v>616821</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>677358</v>
+        <v>678736</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>263172</v>
+        <v>261547</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>371149</v>
+        <v>373839</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>356884</v>
+        <v>355154</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>818324</v>
+        <v>823496</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>974717</v>
+        <v>965760</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1002369</v>
+        <v>1002873</v>
       </c>
     </row>
     <row r="36">
